--- a/resource/天空之城.xlsx
+++ b/resource/天空之城.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitat\Desktop\GenshinPlay\GenshinPlayMusic\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitat\Desktop\GenshinPlay\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D4F38E-A814-4F1B-AD0D-4FD96B55D47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329E2B6C-CC6F-45DF-9B61-AE05FD76FCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="110">
   <si>
     <t>音符(简谱)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +284,190 @@
   </si>
   <si>
     <t>+3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+3,-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,1,-6,-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,2,-7,-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1,1,-5,-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+4,+2,1,-6,-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+3,+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+2,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+3,7,-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+3,-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+6,-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+5,-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+3,-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+2,-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1,-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+2,-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+5,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+3,-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+6,-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+5,-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+2,4,2,-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+2,-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,3,1,-6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1575,14 +1759,583 @@
         <v>1</v>
       </c>
     </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>21</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C108" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B109" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C109" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B110" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B111" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C111" s="4">
+        <v>1</v>
+      </c>
+    </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B112" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C112" s="4">
+        <v>0.5</v>
+      </c>
       <c r="D112" s="3"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B113" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C113" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>22</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C114" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B115" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C115" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B116" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C116" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B117" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B118" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C118" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B119" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C119" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>23</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C120" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B121" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C121" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B122" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C122" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>24</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C123" s="4">
+        <v>1</v>
+      </c>
       <c r="D123" s="3"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B124" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C124" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B125" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C125" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B126" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C126" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>25</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C127" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B128" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C128" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B129" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C129" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B130" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C130" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B131" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C131" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B132" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C132" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B133" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C133" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>26</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C134" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B135" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C135" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B136" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C136" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B137" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C137" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B138" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C138" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B139" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C139" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>27</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C140" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B141" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C141" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B142" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C142" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B143" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C143" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B144" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C144" s="4">
+        <v>1</v>
+      </c>
       <c r="D144" s="3"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B145" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C145" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>28</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C146" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B147" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C147" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B148" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C148" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B149" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C149" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B150" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C150" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B151" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C151" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>29</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C152" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B153" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C153" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B154" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C154" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B155" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C155" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B156" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C156" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B157" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C157" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>30</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C158" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B159" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C159" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B160" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C160" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B161" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C161" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B162" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C162" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C163" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>31</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C164" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B165" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C165" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B166" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C166" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B167" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C167" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B168" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C168" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B169" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C169" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>32</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C170" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B171" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C171" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B172" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C172" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B173" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C173" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>33</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C174" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="229" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D229" s="3"/>
@@ -1615,7 +2368,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B4:B6 B8:B12 B14:B16 B18:B22 B24:B27 B28:B31 B32:B33 B35:B40 B42:B46 B48:B53 B55:B59 B61:B64 B65:B69 B71:B79 B81:B83 B88 B90:B91 B93:B96 B99:B100 B103:B106" numberStoredAsText="1"/>
+    <ignoredError sqref="B4:B6 B8:B12 B14:B16 B18:B22 B24:B27 B28:B31 B32:B33 B35:B40 B42:B46 B48:B53 B55:B59 B61:B64 B65:B69 B71:B79 B81:B83 B88 B90:B91 B93:B96 B99:B100 B103:B106 B109:B113 B115:B119 B121:B122 B128:B151 B153:B169" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/resource/天空之城.xlsx
+++ b/resource/天空之城.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitat\Desktop\GenshinPlay\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329E2B6C-CC6F-45DF-9B61-AE05FD76FCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE985BFD-4891-4D36-B62A-ECF578FB8317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="111">
   <si>
     <t>音符(简谱)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -468,6 +468,11 @@
   </si>
   <si>
     <t>6,3,1,-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改编自人人钢琴网
+原谱：https://www.everyonepiano.cn/Piano-15237.html#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +483,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,6 +496,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -514,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -527,6 +539,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D345"/>
+  <dimension ref="A1:F345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -820,10 +835,11 @@
     <col min="2" max="2" width="28.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="26.375" style="4" customWidth="1"/>
     <col min="4" max="4" width="34.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.625" style="1"/>
+    <col min="5" max="5" width="80.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -836,8 +852,12 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -848,7 +868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -859,7 +879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -870,7 +890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -878,7 +898,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
@@ -886,7 +906,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -897,7 +917,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -905,7 +925,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
@@ -913,7 +933,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
@@ -921,7 +941,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
@@ -929,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
@@ -937,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -948,7 +968,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -956,7 +976,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
@@ -964,7 +984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
